--- a/parts.xlsx
+++ b/parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP - i5\OneDrive - University Collage of Matara\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90F3D46-FF10-4E22-B0FC-138EF4C69070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1498B9A5-7FE3-4585-AB35-6FF26479461B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="34" activeTab="38" xr2:uid="{59A23465-3595-4F50-B97B-6DD07B17D5D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="44" activeTab="48" xr2:uid="{59A23465-3595-4F50-B97B-6DD07B17D5D1}"/>
   </bookViews>
   <sheets>
     <sheet name=" U-8ME2H7" sheetId="8" r:id="rId1"/>
@@ -52,6 +52,16 @@
     <sheet name="CS-PC36JKF" sheetId="41" r:id="rId37"/>
     <sheet name="CU-PC30JKF" sheetId="42" r:id="rId38"/>
     <sheet name="CU-PC36JKF" sheetId="43" r:id="rId39"/>
+    <sheet name="CS-PC9TKH" sheetId="44" r:id="rId40"/>
+    <sheet name="CS-PC12TKH" sheetId="45" r:id="rId41"/>
+    <sheet name="CS-PC18TKH" sheetId="46" r:id="rId42"/>
+    <sheet name="CS-PC24TKH " sheetId="47" r:id="rId43"/>
+    <sheet name="CS-PC28TKH" sheetId="48" r:id="rId44"/>
+    <sheet name="CU-PC9TKH" sheetId="49" r:id="rId45"/>
+    <sheet name="CU-PC12TKH" sheetId="50" r:id="rId46"/>
+    <sheet name="CU-PC18TKH" sheetId="51" r:id="rId47"/>
+    <sheet name="CU-PC24TKH" sheetId="52" r:id="rId48"/>
+    <sheet name="CU-PC28TKH" sheetId="53" r:id="rId49"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8710" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9472" uniqueCount="1464">
   <si>
     <t>BASE PAN-COMPLETE</t>
   </si>
@@ -3609,6 +3619,861 @@
   </si>
   <si>
     <t>CWH82C1535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHASSIS COMPLETE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXD50C00450 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAN MOTOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXA92-00070 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CROSS-FLOW FAN COMPLETE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH02C1159 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCREW - CROSS-FLOW FAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH551146 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEARING ASSY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH64K1006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAPORATOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXB30C02430 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLARE NUT (LIQUID) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWT251026 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLARE NUT (GAS) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWT251061 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIP FOR SENSOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH711019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACK COVER CHASSIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWD933857A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROL BOARD CASING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXH10-00870 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMINAL BOARD COMPLETE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA28C2669 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTICULAR PIECE - TERMINAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXD93-02450 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRONIC CONTROLLER - MAIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXA73C20280 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRONIC CONTROLLER - INDICATOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXA73-06360 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATOR HOLDER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXD93-02460 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENSOR COMPLETE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA50C2122 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCHARGE GRILLE COMPLETE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXE20C00800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERTICAL VANE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXE24-00590 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONNECTING BAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXE26-00250 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FULCRUM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXH62-00110 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP - DRAIN TRAY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH521259 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR SWING MOTOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA981264 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HORIZONTAL VANE COMPLETE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXE24C00880 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROL BOARD TOP COVER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXH13-00700 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROL BOARD FRONT COVER CO. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXH13C00180 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOTE CONTROL COMPLETE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXA75C03590 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRONT GRILLE COMPLETE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXE10C02410 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTAKE GRILLE COMPLETE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXE22C00610 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRILLE DOOR COMPLETE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE14C1112 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR FILTER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWD001385 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCREW - FRONT GRILLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XTT4+16CFJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP - FRONT GRILLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXH52-00140 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAIN HOSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH851174 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTALLATION PLATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH361147 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAG COMPLETE - INSTALLATION SCREW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH82C1705 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPERATING INSTRUCTION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXF55-04280 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTALLATION INSTRUCTION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXF60-04270 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXF60-04280 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXA92-00090 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXB30C02460 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWT251062 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA28C2667 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXA73C20290 </t>
+  </si>
+  <si>
+    <t>ACXD50C00280</t>
+  </si>
+  <si>
+    <t>L6CBYYYL1077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH02C1136 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH64K1010 </t>
+  </si>
+  <si>
+    <t>ACXB30C03170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXH10-00720 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA28C2756 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWD933137 </t>
+  </si>
+  <si>
+    <t>ACXA73C20300</t>
+  </si>
+  <si>
+    <t>ACXE39C00120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXH13-00430 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXD93-01970 </t>
+  </si>
+  <si>
+    <t>ACXH13C00150</t>
+  </si>
+  <si>
+    <t>ACXE20C00680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWD933463B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXH62-00130 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXE24-00400 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXE24-00630 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONNECTING BAR (LEFT) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXE26-00190 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONNECTING BAR (RIGHT) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXE26-00200 </t>
+  </si>
+  <si>
+    <t>ACXE24C00760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA981304 </t>
+  </si>
+  <si>
+    <t>ACXA75C03590</t>
+  </si>
+  <si>
+    <t>ACXE10C02890</t>
+  </si>
+  <si>
+    <t>ACXE22C00870</t>
+  </si>
+  <si>
+    <t>ACXE14C00050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXD00-00250 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXH52-00100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6CBYYYL0193 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXB30C09900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWT251036 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA28C2757 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXA73C20310 </t>
+  </si>
+  <si>
+    <t>ACXB30C03330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA28C2748 </t>
+  </si>
+  <si>
+    <t>ACXA73C20320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXF60-04290 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXF60-04300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH361098 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXF55-04600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHASSIS ASSY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWD50K2241 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUND PROOF MATERIAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWG302403 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAN MOTOR BRACKET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWD541233 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCREW - FAN MOTOR BRACKET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH551217 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAN MOTOR  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA951673 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCREW - FAN MOTOR MOUNT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH55252J </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPELLER FAN ASSY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH03K1020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUT - PROPELLER FAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH56053J </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPRESSOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2PS146D3BA06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI - VIBRATION BUSHING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH50077 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUT - COMPRESSOR MOUNT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH561096 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDENSER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB32C4015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPILLARY TUBE ASSY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB15K1350 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRAINER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB11025 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOLDER COUPLING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH351223 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-WAY VALVE (LIQUID) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB021573 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-WAY VALVE (GAS) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB011685 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERLOAD PROTECTOR WITH WIRE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA12C1009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMINAL COVER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH171011 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUT - TERMINAL COVER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH7080300J </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUND PROOF BOARD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH151390 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMINAL BOARD ASSY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA28K1261 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACITOR - COMP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F0GAH306A004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOLDER CAPACITOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH301035 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACITOR - FM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS441205NPQA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABINET SIDE PLATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE041775A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABINET SIDE PLATE CO. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE04C1509 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABINET FRONT PLATE CO. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE06K1108 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABINET TOP PLATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE031041A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROL BOARD COVER CO. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH13C1273 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATE - C.B. COVER TERMINAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH131325 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACKING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB81043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWG302882 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWD541235 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA951818 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH55406J </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2PS192D3BA06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB32C4016 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB15K1401 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB011488 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA12C1010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA28K1064J </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F0GAH406A005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH301052 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE04C1490 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE06K1109 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABINET SIDE PLATE  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLALE - C.B. COVER TERMINAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACITOR-COMP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACITOR-FM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXD52K00110 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWD541157 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXA95-00010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH03K1100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2KS314D5CA06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH50049 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH561049 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXB32C08800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB15K1315 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH351235 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB021116 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB011105 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH151430 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWG302256 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXE04C00220 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXE04-00130A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE06K1116 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE031230A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH131295 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH13C1274 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA67C9513 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS441606CPNA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH301054 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWD52K1280 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWD541167A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXA92-00120 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH03K1066 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2V40S225AUC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH50055 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXB32C01300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXB15K00890 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB021575 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB011484 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH171012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWG302221 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH151278 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS441355NPQA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH301055 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE04C1399 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE041616A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE06C1443 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE031148A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH131470 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH13C1275 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWD50K2100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWG302408 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWD541065 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA951697 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH03K1017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH561092 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2JD514E3AA03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB32C4099 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACXB15K00880 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB11004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH351225 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB021574 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH151056 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA28K1144 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA28K224J </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA312088 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS441505NPQB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE041207A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE04C1117 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE06K1045 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE03K1009A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROL BOARD COVER (BOTTOM) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH131168 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HANDLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE161010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWH131169A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE16000E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THERMOSTAT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA151061 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBE ASSY (CAP. TUBE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWT023148 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIL SEPARATER ASSY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWB16K1021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRO MAGNETIC SWITCH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWA00192 </t>
   </si>
 </sst>
 </file>
@@ -3884,7 +4749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4030,6 +4895,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -4085,23 +4969,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4431,20 +5314,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
@@ -6565,20 +7448,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="66" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -8453,20 +9336,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="66" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -10693,20 +11576,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="66" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -12928,20 +13811,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="70" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:3" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -14021,20 +14904,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="66" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="70" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:3" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -15080,20 +15963,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="70" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:3" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -16139,20 +17022,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="70" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:3" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -17198,20 +18081,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="70" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:3" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -18257,20 +19140,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="70" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:3" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -19316,20 +20199,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="70" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:3" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -20380,20 +21263,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
@@ -22510,20 +23393,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="70" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:3" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -23569,20 +24452,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -24586,20 +25469,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -25603,20 +26486,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -26620,20 +27503,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="3" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
@@ -27472,20 +28355,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="3" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
@@ -28324,20 +29207,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="3" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
@@ -29176,20 +30059,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="3" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
@@ -30028,20 +30911,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="3" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
@@ -30880,20 +31763,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="3" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
@@ -31737,20 +32620,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -33863,20 +34746,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -34726,20 +35609,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -35589,20 +36472,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -36452,20 +37335,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -37376,20 +38259,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -38300,20 +39183,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -39224,20 +40107,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -39712,20 +40595,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -39783,7 +40666,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="49" t="s">
         <v>1051</v>
       </c>
       <c r="B8">
@@ -39794,7 +40677,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="50" t="s">
         <v>1052</v>
       </c>
       <c r="B9">
@@ -39959,7 +40842,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="51" t="s">
         <v>1050</v>
       </c>
       <c r="B24">
@@ -39981,7 +40864,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="49" t="s">
         <v>1047</v>
       </c>
       <c r="B26">
@@ -39992,7 +40875,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="50" t="s">
         <v>1048</v>
       </c>
       <c r="B27">
@@ -40003,7 +40886,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="50" t="s">
         <v>1049</v>
       </c>
       <c r="B28">
@@ -40232,513 +41115,513 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="53" t="s">
         <v>1056</v>
       </c>
-      <c r="B3" s="71">
-        <v>1</v>
-      </c>
-      <c r="C3" s="70" t="s">
+      <c r="B3" s="53">
+        <v>1</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="55" t="s">
         <v>1058</v>
       </c>
-      <c r="B4" s="73">
-        <v>1</v>
-      </c>
-      <c r="C4" s="72" t="s">
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="55" t="s">
         <v>1060</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="55">
         <v>3</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="54" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="55" t="s">
         <v>1062</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="55">
         <v>3</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="54" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="55" t="s">
         <v>1064</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="55">
         <v>3</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="54" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="55" t="s">
         <v>1066</v>
       </c>
-      <c r="B8" s="73">
-        <v>1</v>
-      </c>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="55">
+        <v>1</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="55" t="s">
         <v>1067</v>
       </c>
-      <c r="B9" s="73">
-        <v>1</v>
-      </c>
-      <c r="C9" s="72" t="s">
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="54" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="55" t="s">
         <v>1069</v>
       </c>
-      <c r="B10" s="73">
-        <v>1</v>
-      </c>
-      <c r="C10" s="72" t="s">
+      <c r="B10" s="55">
+        <v>1</v>
+      </c>
+      <c r="C10" s="54" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="55" t="s">
         <v>1071</v>
       </c>
-      <c r="B11" s="73">
-        <v>1</v>
-      </c>
-      <c r="C11" s="72" t="s">
+      <c r="B11" s="55">
+        <v>1</v>
+      </c>
+      <c r="C11" s="54" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="55" t="s">
         <v>1073</v>
       </c>
-      <c r="B12" s="73">
-        <v>1</v>
-      </c>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="55">
+        <v>1</v>
+      </c>
+      <c r="C12" s="54" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="55" t="s">
         <v>1074</v>
       </c>
-      <c r="B13" s="73">
-        <v>1</v>
-      </c>
-      <c r="C13" s="72" t="s">
+      <c r="B13" s="55">
+        <v>1</v>
+      </c>
+      <c r="C13" s="54" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="55" t="s">
         <v>1076</v>
       </c>
-      <c r="B14" s="73">
-        <v>1</v>
-      </c>
-      <c r="C14" s="72" t="s">
+      <c r="B14" s="55">
+        <v>1</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="55" t="s">
         <v>1078</v>
       </c>
-      <c r="B15" s="73">
-        <v>1</v>
-      </c>
-      <c r="C15" s="72" t="s">
+      <c r="B15" s="55">
+        <v>1</v>
+      </c>
+      <c r="C15" s="54" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="55" t="s">
         <v>1080</v>
       </c>
-      <c r="B16" s="73">
-        <v>1</v>
-      </c>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="55">
+        <v>1</v>
+      </c>
+      <c r="C16" s="54" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="55" t="s">
         <v>1081</v>
       </c>
-      <c r="B17" s="73">
-        <v>1</v>
-      </c>
-      <c r="C17" s="72" t="s">
+      <c r="B17" s="55">
+        <v>1</v>
+      </c>
+      <c r="C17" s="54" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="55" t="s">
         <v>1083</v>
       </c>
-      <c r="B18" s="73">
-        <v>1</v>
-      </c>
-      <c r="C18" s="72" t="s">
+      <c r="B18" s="55">
+        <v>1</v>
+      </c>
+      <c r="C18" s="54" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="55" t="s">
         <v>1085</v>
       </c>
-      <c r="B19" s="73">
-        <v>1</v>
-      </c>
-      <c r="C19" s="72" t="s">
+      <c r="B19" s="55">
+        <v>1</v>
+      </c>
+      <c r="C19" s="54" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="55" t="s">
         <v>814</v>
       </c>
-      <c r="B20" s="73">
+      <c r="B20" s="55">
         <v>2</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="54" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="55" t="s">
         <v>1087</v>
       </c>
-      <c r="B21" s="73">
-        <v>1</v>
-      </c>
-      <c r="C21" s="72" t="s">
+      <c r="B21" s="55">
+        <v>1</v>
+      </c>
+      <c r="C21" s="54" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="55" t="s">
         <v>1088</v>
       </c>
-      <c r="B22" s="73">
-        <v>1</v>
-      </c>
-      <c r="C22" s="72" t="s">
+      <c r="B22" s="55">
+        <v>1</v>
+      </c>
+      <c r="C22" s="54" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="55" t="s">
         <v>1090</v>
       </c>
-      <c r="B23" s="73">
-        <v>1</v>
-      </c>
-      <c r="C23" s="72" t="s">
+      <c r="B23" s="55">
+        <v>1</v>
+      </c>
+      <c r="C23" s="54" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="55" t="s">
         <v>1092</v>
       </c>
-      <c r="B24" s="73">
-        <v>1</v>
-      </c>
-      <c r="C24" s="72" t="s">
+      <c r="B24" s="55">
+        <v>1</v>
+      </c>
+      <c r="C24" s="54" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="55" t="s">
         <v>1093</v>
       </c>
-      <c r="B25" s="73">
-        <v>1</v>
-      </c>
-      <c r="C25" s="72" t="s">
+      <c r="B25" s="55">
+        <v>1</v>
+      </c>
+      <c r="C25" s="54" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="55" t="s">
         <v>1095</v>
       </c>
-      <c r="B26" s="73">
-        <v>1</v>
-      </c>
-      <c r="C26" s="72" t="s">
+      <c r="B26" s="55">
+        <v>1</v>
+      </c>
+      <c r="C26" s="54" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="55" t="s">
         <v>1097</v>
       </c>
-      <c r="B27" s="73">
-        <v>1</v>
-      </c>
-      <c r="C27" s="72" t="s">
+      <c r="B27" s="55">
+        <v>1</v>
+      </c>
+      <c r="C27" s="54" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="55" t="s">
         <v>1098</v>
       </c>
-      <c r="B28" s="73">
-        <v>1</v>
-      </c>
-      <c r="C28" s="72" t="s">
+      <c r="B28" s="55">
+        <v>1</v>
+      </c>
+      <c r="C28" s="54" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="55" t="s">
         <v>576</v>
       </c>
-      <c r="B29" s="73">
-        <v>1</v>
-      </c>
-      <c r="C29" s="72" t="s">
+      <c r="B29" s="55">
+        <v>1</v>
+      </c>
+      <c r="C29" s="54" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="55" t="s">
         <v>1099</v>
       </c>
-      <c r="B30" s="73">
-        <v>1</v>
-      </c>
-      <c r="C30" s="72" t="s">
+      <c r="B30" s="55">
+        <v>1</v>
+      </c>
+      <c r="C30" s="54" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="55" t="s">
         <v>1101</v>
       </c>
-      <c r="B31" s="73">
-        <v>1</v>
-      </c>
-      <c r="C31" s="72" t="s">
+      <c r="B31" s="55">
+        <v>1</v>
+      </c>
+      <c r="C31" s="54" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="55" t="s">
         <v>1103</v>
       </c>
-      <c r="B32" s="73">
-        <v>1</v>
-      </c>
-      <c r="C32" s="72" t="s">
+      <c r="B32" s="55">
+        <v>1</v>
+      </c>
+      <c r="C32" s="54" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="55" t="s">
         <v>1105</v>
       </c>
-      <c r="B33" s="73">
+      <c r="B33" s="55">
         <v>2</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="54" t="s">
         <v>1104</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="55" t="s">
         <v>1107</v>
       </c>
-      <c r="B34" s="73">
-        <v>1</v>
-      </c>
-      <c r="C34" s="72" t="s">
+      <c r="B34" s="55">
+        <v>1</v>
+      </c>
+      <c r="C34" s="54" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="55" t="s">
         <v>1105</v>
       </c>
-      <c r="B35" s="73">
+      <c r="B35" s="55">
         <v>4</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="54" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="55" t="s">
         <v>1110</v>
       </c>
-      <c r="B36" s="73">
-        <v>1</v>
-      </c>
-      <c r="C36" s="72" t="s">
+      <c r="B36" s="55">
+        <v>1</v>
+      </c>
+      <c r="C36" s="54" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="55" t="s">
         <v>1112</v>
       </c>
-      <c r="B37" s="73">
-        <v>1</v>
-      </c>
-      <c r="C37" s="72" t="s">
+      <c r="B37" s="55">
+        <v>1</v>
+      </c>
+      <c r="C37" s="54" t="s">
         <v>1111</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="55" t="s">
         <v>1113</v>
       </c>
-      <c r="B38" s="73">
-        <v>1</v>
-      </c>
-      <c r="C38" s="72" t="s">
+      <c r="B38" s="55">
+        <v>1</v>
+      </c>
+      <c r="C38" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="55" t="s">
         <v>1115</v>
       </c>
-      <c r="B39" s="73">
-        <v>1</v>
-      </c>
-      <c r="C39" s="72" t="s">
+      <c r="B39" s="55">
+        <v>1</v>
+      </c>
+      <c r="C39" s="54" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="55" t="s">
         <v>1117</v>
       </c>
-      <c r="B40" s="73">
-        <v>1</v>
-      </c>
-      <c r="C40" s="72" t="s">
+      <c r="B40" s="55">
+        <v>1</v>
+      </c>
+      <c r="C40" s="54" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="55" t="s">
         <v>1119</v>
       </c>
-      <c r="B41" s="73">
-        <v>1</v>
-      </c>
-      <c r="C41" s="72" t="s">
+      <c r="B41" s="55">
+        <v>1</v>
+      </c>
+      <c r="C41" s="54" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="55" t="s">
         <v>1121</v>
       </c>
-      <c r="B42" s="73">
-        <v>1</v>
-      </c>
-      <c r="C42" s="72" t="s">
+      <c r="B42" s="55">
+        <v>1</v>
+      </c>
+      <c r="C42" s="54" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="55" t="s">
         <v>1123</v>
       </c>
-      <c r="B43" s="73">
-        <v>1</v>
-      </c>
-      <c r="C43" s="72" t="s">
+      <c r="B43" s="55">
+        <v>1</v>
+      </c>
+      <c r="C43" s="54" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="55" t="s">
         <v>1125</v>
       </c>
-      <c r="B44" s="73">
-        <v>1</v>
-      </c>
-      <c r="C44" s="72" t="s">
+      <c r="B44" s="55">
+        <v>1</v>
+      </c>
+      <c r="C44" s="54" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="55" t="s">
         <v>1127</v>
       </c>
-      <c r="B45" s="73">
-        <v>1</v>
-      </c>
-      <c r="C45" s="72" t="s">
+      <c r="B45" s="55">
+        <v>1</v>
+      </c>
+      <c r="C45" s="54" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="55" t="s">
         <v>1129</v>
       </c>
-      <c r="B46" s="73">
+      <c r="B46" s="55">
         <v>3</v>
       </c>
-      <c r="C46" s="72" t="s">
+      <c r="C46" s="54" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="55" t="s">
         <v>1131</v>
       </c>
-      <c r="B47" s="73">
-        <v>1</v>
-      </c>
-      <c r="C47" s="72" t="s">
+      <c r="B47" s="55">
+        <v>1</v>
+      </c>
+      <c r="C47" s="54" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -40756,531 +41639,531 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7D262C-EED8-4327-8A9C-0118A3851B5E}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C48"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="53" t="s">
         <v>1132</v>
       </c>
-      <c r="B3" s="71">
-        <v>1</v>
-      </c>
-      <c r="C3" s="70" t="s">
+      <c r="B3" s="53">
+        <v>1</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="55" t="s">
         <v>1133</v>
       </c>
-      <c r="B4" s="73">
-        <v>1</v>
-      </c>
-      <c r="C4" s="72" t="s">
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="55" t="s">
         <v>1134</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="55">
         <v>3</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="54" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="55" t="s">
         <v>1064</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="55">
         <v>3</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="54" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="55" t="s">
         <v>1062</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="55">
         <v>3</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="54" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="55" t="s">
         <v>1136</v>
       </c>
-      <c r="B8" s="73">
-        <v>1</v>
-      </c>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="55">
+        <v>1</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="55" t="s">
         <v>1138</v>
       </c>
-      <c r="B9" s="73">
-        <v>1</v>
-      </c>
-      <c r="C9" s="72" t="s">
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="54" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="55" t="s">
         <v>1139</v>
       </c>
-      <c r="B10" s="73">
-        <v>1</v>
-      </c>
-      <c r="C10" s="72" t="s">
+      <c r="B10" s="55">
+        <v>1</v>
+      </c>
+      <c r="C10" s="54" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="55" t="s">
         <v>1140</v>
       </c>
-      <c r="B11" s="73">
-        <v>1</v>
-      </c>
-      <c r="C11" s="72" t="s">
+      <c r="B11" s="55">
+        <v>1</v>
+      </c>
+      <c r="C11" s="54" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="55" t="s">
         <v>1141</v>
       </c>
-      <c r="B12" s="73">
-        <v>1</v>
-      </c>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="55">
+        <v>1</v>
+      </c>
+      <c r="C12" s="54" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="55" t="s">
         <v>1143</v>
       </c>
-      <c r="B13" s="73">
-        <v>1</v>
-      </c>
-      <c r="C13" s="72" t="s">
+      <c r="B13" s="55">
+        <v>1</v>
+      </c>
+      <c r="C13" s="54" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="55" t="s">
         <v>1144</v>
       </c>
-      <c r="B14" s="73">
-        <v>1</v>
-      </c>
-      <c r="C14" s="72" t="s">
+      <c r="B14" s="55">
+        <v>1</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="55" t="s">
         <v>1145</v>
       </c>
-      <c r="B15" s="73">
-        <v>1</v>
-      </c>
-      <c r="C15" s="72" t="s">
+      <c r="B15" s="55">
+        <v>1</v>
+      </c>
+      <c r="C15" s="54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="55" t="s">
         <v>1146</v>
       </c>
-      <c r="B16" s="73">
-        <v>1</v>
-      </c>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="55">
+        <v>1</v>
+      </c>
+      <c r="C16" s="54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="55" t="s">
         <v>1147</v>
       </c>
-      <c r="B17" s="73">
-        <v>1</v>
-      </c>
-      <c r="C17" s="72" t="s">
+      <c r="B17" s="55">
+        <v>1</v>
+      </c>
+      <c r="C17" s="54" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="55" t="s">
         <v>1085</v>
       </c>
-      <c r="B18" s="73">
-        <v>1</v>
-      </c>
-      <c r="C18" s="72" t="s">
+      <c r="B18" s="55">
+        <v>1</v>
+      </c>
+      <c r="C18" s="54" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="55" t="s">
         <v>1148</v>
       </c>
-      <c r="B19" s="73">
-        <v>1</v>
-      </c>
-      <c r="C19" s="72" t="s">
+      <c r="B19" s="55">
+        <v>1</v>
+      </c>
+      <c r="C19" s="54" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="55" t="s">
         <v>814</v>
       </c>
-      <c r="B20" s="73">
+      <c r="B20" s="55">
         <v>2</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="54" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="55" t="s">
         <v>1150</v>
       </c>
-      <c r="B21" s="73">
-        <v>1</v>
-      </c>
-      <c r="C21" s="72" t="s">
+      <c r="B21" s="55">
+        <v>1</v>
+      </c>
+      <c r="C21" s="54" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="55" t="s">
         <v>1152</v>
       </c>
-      <c r="B22" s="73">
-        <v>1</v>
-      </c>
-      <c r="C22" s="72" t="s">
+      <c r="B22" s="55">
+        <v>1</v>
+      </c>
+      <c r="C22" s="54" t="s">
         <v>1151</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="55" t="s">
         <v>1154</v>
       </c>
-      <c r="B23" s="73">
-        <v>1</v>
-      </c>
-      <c r="C23" s="72" t="s">
+      <c r="B23" s="55">
+        <v>1</v>
+      </c>
+      <c r="C23" s="54" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="55" t="s">
         <v>1092</v>
       </c>
-      <c r="B24" s="73">
-        <v>1</v>
-      </c>
-      <c r="C24" s="72" t="s">
+      <c r="B24" s="55">
+        <v>1</v>
+      </c>
+      <c r="C24" s="54" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="55" t="s">
         <v>1093</v>
       </c>
-      <c r="B25" s="73">
-        <v>1</v>
-      </c>
-      <c r="C25" s="72" t="s">
+      <c r="B25" s="55">
+        <v>1</v>
+      </c>
+      <c r="C25" s="54" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="55" t="s">
         <v>1156</v>
       </c>
-      <c r="B26" s="73">
+      <c r="B26" s="55">
         <v>2</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="54" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="55" t="s">
         <v>1158</v>
       </c>
-      <c r="B27" s="73">
-        <v>1</v>
-      </c>
-      <c r="C27" s="72" t="s">
+      <c r="B27" s="55">
+        <v>1</v>
+      </c>
+      <c r="C27" s="54" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="55" t="s">
         <v>1160</v>
       </c>
-      <c r="B28" s="73">
-        <v>1</v>
-      </c>
-      <c r="C28" s="72" t="s">
+      <c r="B28" s="55">
+        <v>1</v>
+      </c>
+      <c r="C28" s="54" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="55" t="s">
         <v>1161</v>
       </c>
-      <c r="B29" s="73">
-        <v>1</v>
-      </c>
-      <c r="C29" s="72" t="s">
+      <c r="B29" s="55">
+        <v>1</v>
+      </c>
+      <c r="C29" s="54" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="55" t="s">
         <v>576</v>
       </c>
-      <c r="B30" s="73">
-        <v>1</v>
-      </c>
-      <c r="C30" s="72" t="s">
+      <c r="B30" s="55">
+        <v>1</v>
+      </c>
+      <c r="C30" s="54" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="55" t="s">
         <v>1162</v>
       </c>
-      <c r="B31" s="73">
-        <v>1</v>
-      </c>
-      <c r="C31" s="72" t="s">
+      <c r="B31" s="55">
+        <v>1</v>
+      </c>
+      <c r="C31" s="54" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="55" t="s">
         <v>1105</v>
       </c>
-      <c r="B32" s="73">
+      <c r="B32" s="55">
         <v>2</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="54" t="s">
         <v>1104</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="55" t="s">
         <v>1164</v>
       </c>
-      <c r="B33" s="73">
-        <v>1</v>
-      </c>
-      <c r="C33" s="72" t="s">
+      <c r="B33" s="55">
+        <v>1</v>
+      </c>
+      <c r="C33" s="54" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="55" t="s">
         <v>1165</v>
       </c>
-      <c r="B34" s="73">
-        <v>1</v>
-      </c>
-      <c r="C34" s="72" t="s">
+      <c r="B34" s="55">
+        <v>1</v>
+      </c>
+      <c r="C34" s="54" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="55" t="s">
         <v>1105</v>
       </c>
-      <c r="B35" s="73">
+      <c r="B35" s="55">
         <v>8</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="54" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="55" t="s">
         <v>1167</v>
       </c>
-      <c r="B36" s="73">
+      <c r="B36" s="55">
         <v>2</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="54" t="s">
         <v>1166</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="55" t="s">
         <v>1112</v>
       </c>
-      <c r="B37" s="73">
+      <c r="B37" s="55">
         <v>2</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="54" t="s">
         <v>1168</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="55" t="s">
         <v>1170</v>
       </c>
-      <c r="B38" s="73">
-        <v>1</v>
-      </c>
-      <c r="C38" s="72" t="s">
+      <c r="B38" s="55">
+        <v>1</v>
+      </c>
+      <c r="C38" s="54" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="55" t="s">
         <v>1171</v>
       </c>
-      <c r="B39" s="73">
+      <c r="B39" s="55">
         <v>2</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="54" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="55" t="s">
         <v>1172</v>
       </c>
-      <c r="B40" s="73">
-        <v>1</v>
-      </c>
-      <c r="C40" s="72" t="s">
+      <c r="B40" s="55">
+        <v>1</v>
+      </c>
+      <c r="C40" s="54" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="55" t="s">
         <v>1173</v>
       </c>
-      <c r="B41" s="73">
-        <v>1</v>
-      </c>
-      <c r="C41" s="72" t="s">
+      <c r="B41" s="55">
+        <v>1</v>
+      </c>
+      <c r="C41" s="54" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="55" t="s">
         <v>1121</v>
       </c>
-      <c r="B42" s="73">
-        <v>1</v>
-      </c>
-      <c r="C42" s="72" t="s">
+      <c r="B42" s="55">
+        <v>1</v>
+      </c>
+      <c r="C42" s="54" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="55" t="s">
         <v>1123</v>
       </c>
-      <c r="B43" s="73">
-        <v>1</v>
-      </c>
-      <c r="C43" s="72" t="s">
+      <c r="B43" s="55">
+        <v>1</v>
+      </c>
+      <c r="C43" s="54" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="55" t="s">
         <v>1174</v>
       </c>
-      <c r="B44" s="73">
-        <v>1</v>
-      </c>
-      <c r="C44" s="72" t="s">
+      <c r="B44" s="55">
+        <v>1</v>
+      </c>
+      <c r="C44" s="54" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="55" t="s">
         <v>1175</v>
       </c>
-      <c r="B45" s="73">
-        <v>1</v>
-      </c>
-      <c r="C45" s="72" t="s">
+      <c r="B45" s="55">
+        <v>1</v>
+      </c>
+      <c r="C45" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="55" t="s">
         <v>1129</v>
       </c>
-      <c r="B46" s="73">
+      <c r="B46" s="55">
         <v>2</v>
       </c>
-      <c r="C46" s="72" t="s">
+      <c r="C46" s="54" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="55" t="s">
         <v>1177</v>
       </c>
-      <c r="B47" s="73">
-        <v>1</v>
-      </c>
-      <c r="C47" s="72" t="s">
+      <c r="B47" s="55">
+        <v>1</v>
+      </c>
+      <c r="C47" s="54" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="55" t="s">
         <v>1178</v>
       </c>
-      <c r="B48" s="73">
-        <v>1</v>
-      </c>
-      <c r="C48" s="72" t="s">
+      <c r="B48" s="55">
+        <v>1</v>
+      </c>
+      <c r="C48" s="54" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -41310,20 +42193,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="64" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -43473,6 +44356,4392 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03AB94B-8A4F-41F4-AF69-F998E50B85D7}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
+    </row>
+    <row r="3" spans="1:3" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B3" s="53">
+        <v>1</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B5" s="55">
+        <v>1</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B6" s="55">
+        <v>1</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B7" s="55">
+        <v>1</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B8" s="55">
+        <v>1</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B10" s="55">
+        <v>1</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B11" s="55">
+        <v>1</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="55" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B12" s="55">
+        <v>1</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B13" s="55">
+        <v>1</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B14" s="55">
+        <v>1</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="55" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B15" s="55">
+        <v>1</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="55" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B16" s="55">
+        <v>1</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B17" s="55">
+        <v>1</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B18" s="55">
+        <v>1</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="55" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B19" s="55">
+        <v>1</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="55" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B20" s="55">
+        <v>1</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="55" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B21" s="55">
+        <v>8</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B22" s="55">
+        <v>2</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="55" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B23" s="55">
+        <v>1</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="55" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B24" s="55">
+        <v>1</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="55" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B25" s="55">
+        <v>1</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="55" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B26" s="55">
+        <v>1</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="55" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B27" s="55">
+        <v>1</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="55" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B28" s="55">
+        <v>1</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="55" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B29" s="55">
+        <v>1</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="55" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B30" s="55">
+        <v>1</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="55" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B31" s="55">
+        <v>1</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="55" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B32" s="55">
+        <v>1</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="55" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B33" s="55">
+        <v>2</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="55" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B34" s="55">
+        <v>3</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="55" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B35" s="55">
+        <v>2</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="55" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B36" s="55">
+        <v>1</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="55" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B37" s="55">
+        <v>1</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="55" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B38" s="55">
+        <v>1</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="55" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B39" s="55">
+        <v>1</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="55" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B40" s="55">
+        <v>1</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="55" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B41" s="55">
+        <v>1</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B07FDF-6A3B-4811-9CB5-0E92B69F5AB3}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
+    </row>
+    <row r="3" spans="1:3" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B3" s="53">
+        <v>1</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B5" s="55">
+        <v>1</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B6" s="55">
+        <v>1</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B7" s="55">
+        <v>1</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B8" s="55">
+        <v>1</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B10" s="55">
+        <v>1</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B11" s="55">
+        <v>1</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="55" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B12" s="55">
+        <v>1</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B13" s="55">
+        <v>1</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B14" s="55">
+        <v>1</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="55" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B15" s="55">
+        <v>1</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B16" s="55">
+        <v>1</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B17" s="55">
+        <v>1</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B18" s="55">
+        <v>1</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="55" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B19" s="55">
+        <v>1</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="55" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B20" s="55">
+        <v>1</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="55" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B21" s="55">
+        <v>8</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B22" s="55">
+        <v>2</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="55" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B23" s="55">
+        <v>1</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="55" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B24" s="55">
+        <v>1</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="55" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B25" s="55">
+        <v>1</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="55" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B26" s="55">
+        <v>1</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="55" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B27" s="55">
+        <v>1</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="55" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B28" s="55">
+        <v>1</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="55" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B29" s="55">
+        <v>1</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="55" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B30" s="55">
+        <v>1</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="55" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B31" s="55">
+        <v>1</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="55" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B32" s="55">
+        <v>1</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="55" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B33" s="55">
+        <v>2</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="55" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B34" s="55">
+        <v>3</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="55" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B35" s="55">
+        <v>2</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="55" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B36" s="55">
+        <v>1</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="55" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B37" s="55">
+        <v>1</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="55" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B38" s="55">
+        <v>1</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="55" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B39" s="55">
+        <v>1</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="55" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B40" s="55">
+        <v>1</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="55" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B41" s="55">
+        <v>1</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378F96BB-F5CD-4629-8867-444469831F39}">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
+    </row>
+    <row r="3" spans="1:3" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="76" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B3" s="53">
+        <v>1</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B5" s="55">
+        <v>1</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B6" s="55">
+        <v>1</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B7" s="55">
+        <v>1</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="77" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B8" s="55">
+        <v>1</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B10" s="55">
+        <v>1</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B11" s="55">
+        <v>1</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B12" s="55">
+        <v>1</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="78" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B13" s="55">
+        <v>1</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B14" s="55">
+        <v>1</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="77" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B15" s="55">
+        <v>1</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="77" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B16" s="55">
+        <v>1</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B17" s="55">
+        <v>1</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="78" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B18" s="55">
+        <v>1</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B19" s="55">
+        <v>1</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="77" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B20" s="55">
+        <v>1</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="77" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B21" s="55">
+        <v>1</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="78" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B22" s="55">
+        <v>1</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="78" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B23" s="55">
+        <v>2</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="78" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B24" s="55">
+        <v>9</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B25" s="55">
+        <v>2</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="78" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B26" s="55">
+        <v>1</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B27" s="55">
+        <v>1</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="77" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B28" s="55">
+        <v>1</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="55" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B29" s="55">
+        <v>1</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="55" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B30" s="55">
+        <v>1</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="77" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B31" s="55">
+        <v>1</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="77" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B32" s="55">
+        <v>1</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="77" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B33" s="55">
+        <v>1</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="77" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B34" s="55">
+        <v>1</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="78" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B35" s="55">
+        <v>2</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="78" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B36" s="55">
+        <v>4</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="78" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B37" s="55">
+        <v>3</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="55" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B38" s="55">
+        <v>1</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="53" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B39" s="53">
+        <v>1</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="78" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B40" s="55">
+        <v>1</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="78" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B41" s="55">
+        <v>1</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="75" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B42" s="55">
+        <v>1</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="75" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B43" s="55">
+        <v>1</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0058AF70-D1F7-4F4A-8793-9A6E7B8F2A74}">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
+    </row>
+    <row r="3" spans="1:3" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="76" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B3" s="53">
+        <v>1</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="79" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B5" s="55">
+        <v>1</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B6" s="55">
+        <v>1</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B7" s="55">
+        <v>1</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="79" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B8" s="55">
+        <v>1</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B10" s="55">
+        <v>1</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B11" s="55">
+        <v>1</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B12" s="55">
+        <v>1</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="75" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B13" s="55">
+        <v>1</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B14" s="55">
+        <v>1</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="79" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B15" s="55">
+        <v>1</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="77" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B16" s="55">
+        <v>1</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B17" s="55">
+        <v>1</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="78" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B18" s="55">
+        <v>1</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B19" s="55">
+        <v>1</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="77" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B20" s="55">
+        <v>1</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="77" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B21" s="55">
+        <v>1</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="78" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B22" s="55">
+        <v>1</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="78" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B23" s="55">
+        <v>2</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="78" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B24" s="55">
+        <v>9</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B25" s="55">
+        <v>2</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="78" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B26" s="55">
+        <v>1</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B27" s="55">
+        <v>1</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="77" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B28" s="55">
+        <v>1</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="55" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B29" s="55">
+        <v>1</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="55" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B30" s="55">
+        <v>1</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="77" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B31" s="55">
+        <v>1</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="77" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B32" s="55">
+        <v>1</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="77" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B33" s="55">
+        <v>1</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="77" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B34" s="55">
+        <v>1</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="78" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B35" s="55">
+        <v>2</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="78" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B36" s="55">
+        <v>4</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="78" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B37" s="55">
+        <v>3</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="55" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B38" s="55">
+        <v>1</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="53" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B39" s="53">
+        <v>1</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="78" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B40" s="55">
+        <v>1</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="78" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B41" s="55">
+        <v>1</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="75" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B42" s="55">
+        <v>1</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="75" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B43" s="55">
+        <v>1</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D682B4E-7286-4B6C-8F28-10F2FA66FC2D}">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E18" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
+    </row>
+    <row r="3" spans="1:3" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="76" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B3" s="53">
+        <v>1</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B5" s="55">
+        <v>1</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B6" s="55">
+        <v>1</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B7" s="55">
+        <v>1</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="79" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B8" s="55">
+        <v>1</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B10" s="55">
+        <v>1</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B11" s="55">
+        <v>1</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B12" s="55">
+        <v>1</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="75" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B13" s="55">
+        <v>1</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B14" s="55">
+        <v>1</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="79" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B15" s="55">
+        <v>1</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="77" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B16" s="55">
+        <v>1</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B17" s="55">
+        <v>1</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="78" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B18" s="55">
+        <v>1</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B19" s="55">
+        <v>1</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="77" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B20" s="55">
+        <v>1</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="77" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B21" s="55">
+        <v>1</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="78" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B22" s="55">
+        <v>1</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="78" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B23" s="55">
+        <v>2</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="78" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B24" s="55">
+        <v>9</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B25" s="55">
+        <v>2</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="78" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B26" s="55">
+        <v>1</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B27" s="55">
+        <v>1</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="77" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B28" s="55">
+        <v>1</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="55" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B29" s="55">
+        <v>1</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="55" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B30" s="55">
+        <v>1</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="77" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B31" s="55">
+        <v>1</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="77" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B32" s="55">
+        <v>1</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="77" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B33" s="55">
+        <v>1</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="77" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B34" s="55">
+        <v>1</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="78" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B35" s="55">
+        <v>2</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="78" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B36" s="55">
+        <v>4</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="78" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B37" s="55">
+        <v>3</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="55" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B38" s="55">
+        <v>1</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="53" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B39" s="53">
+        <v>1</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="78" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B40" s="55">
+        <v>1</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="78" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B41" s="55">
+        <v>1</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="75" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B42" s="55">
+        <v>1</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="75" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B43" s="55">
+        <v>1</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59835AF2-687C-41FE-A3EC-199A1B618A7A}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
+    </row>
+    <row r="3" spans="1:3" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B3" s="53">
+        <v>1</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B5" s="55">
+        <v>1</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B6" s="55">
+        <v>2</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B7" s="55">
+        <v>1</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B8" s="55">
+        <v>4</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B10" s="55">
+        <v>1</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B11" s="55">
+        <v>1</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="55" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B12" s="55">
+        <v>3</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B13" s="55">
+        <v>3</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B14" s="55">
+        <v>1</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="55" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B15" s="55">
+        <v>1</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="55" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B16" s="55">
+        <v>1</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B17" s="55">
+        <v>1</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B18" s="55">
+        <v>1</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="55" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B19" s="55">
+        <v>1</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="55" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B20" s="55">
+        <v>1</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="55" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B21" s="55">
+        <v>1</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B22" s="55">
+        <v>1</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="55" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B23" s="55">
+        <v>1</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="55" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B24" s="55">
+        <v>1</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="55" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B25" s="55">
+        <v>1</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="55" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B26" s="55">
+        <v>1</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="55" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B27" s="55">
+        <v>1</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="55" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B28" s="55">
+        <v>1</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="55" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B29" s="55">
+        <v>1</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="55" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B30" s="55">
+        <v>1</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="55" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B31" s="55">
+        <v>1</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="55" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B32" s="55">
+        <v>1</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="55" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B33" s="55">
+        <v>1</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="55" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B34" s="55">
+        <v>3</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4546C87-DA77-40C3-ACBC-4AC119B85D45}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
+    </row>
+    <row r="3" spans="1:3" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B3" s="53">
+        <v>1</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B5" s="55">
+        <v>1</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B6" s="55">
+        <v>2</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B7" s="55">
+        <v>1</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B8" s="55">
+        <v>4</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B10" s="55">
+        <v>1</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B11" s="55">
+        <v>1</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="55" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B12" s="55">
+        <v>3</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B13" s="55">
+        <v>3</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B14" s="55">
+        <v>1</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B15" s="55">
+        <v>1</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="55" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B16" s="55">
+        <v>1</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B17" s="55">
+        <v>1</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B18" s="55">
+        <v>1</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B19" s="55">
+        <v>1</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="50" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B20" s="55">
+        <v>1</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="55" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B21" s="55">
+        <v>1</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B22" s="55">
+        <v>1</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="55" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B23" s="55">
+        <v>1</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="50" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B24" s="55">
+        <v>1</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="50" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B25" s="55">
+        <v>1</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="50" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B26" s="55">
+        <v>1</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="55" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B27" s="55">
+        <v>1</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="55" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B28" s="55">
+        <v>1</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="50" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B29" s="55">
+        <v>1</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B30" s="55">
+        <v>1</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="55" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B31" s="55">
+        <v>1</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="55" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B32" s="55">
+        <v>1</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="55" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B33" s="55">
+        <v>1</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="55" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B34" s="55">
+        <v>3</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374F8412-03FD-4D20-8CDA-EF6FFC5A9341}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
+    </row>
+    <row r="3" spans="1:3" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B3" s="49">
+        <v>1</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B4" s="50">
+        <v>1</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B5" s="50">
+        <v>2</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B6" s="50">
+        <v>1</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B7" s="50">
+        <v>4</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B8" s="50">
+        <v>1</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B9" s="50">
+        <v>1</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B10" s="50">
+        <v>1</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B11" s="50">
+        <v>3</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B12" s="50">
+        <v>3</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B13" s="50">
+        <v>1</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B14" s="50">
+        <v>1</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B15" s="50">
+        <v>1</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B16" s="50">
+        <v>1</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B17" s="50">
+        <v>1</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B18" s="50">
+        <v>1</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B19" s="50">
+        <v>1</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="50" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B20" s="50">
+        <v>1</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B21" s="50">
+        <v>1</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="50" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B22" s="50">
+        <v>1</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="50" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B23" s="50">
+        <v>1</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="50" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B24" s="50">
+        <v>1</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="50" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B25" s="50">
+        <v>1</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="50" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B26" s="50">
+        <v>1</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="50" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B27" s="50">
+        <v>1</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="50" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B28" s="50">
+        <v>1</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="50" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B29" s="50">
+        <v>1</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B30" s="50">
+        <v>1</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="50" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B31" s="50">
+        <v>1</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="50" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B32" s="50">
+        <v>1</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="50" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B33" s="50">
+        <v>1</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="50" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B34" s="50">
+        <v>3</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98CC055-DB46-4523-845D-F966AE122861}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
+    </row>
+    <row r="3" spans="1:3" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B3" s="53">
+        <v>1</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B5" s="55">
+        <v>3</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B6" s="55">
+        <v>1</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B7" s="55">
+        <v>4</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B8" s="55">
+        <v>1</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B10" s="55">
+        <v>1</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B11" s="55">
+        <v>3</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="55" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B12" s="55">
+        <v>3</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B13" s="55">
+        <v>1</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B14" s="55">
+        <v>1</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="55" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B15" s="55">
+        <v>1</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="55" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B16" s="55">
+        <v>1</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B17" s="55">
+        <v>1</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B18" s="55">
+        <v>1</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="55" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B19" s="55">
+        <v>1</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="55" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B20" s="55">
+        <v>1</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="55" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B21" s="55">
+        <v>1</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B22" s="55">
+        <v>1</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="55" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B23" s="55">
+        <v>1</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="55" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B24" s="55">
+        <v>1</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="55" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B25" s="55">
+        <v>1</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="55" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B26" s="55">
+        <v>1</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="55" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B27" s="55">
+        <v>1</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="55" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B28" s="55">
+        <v>1</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="55" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B29" s="55">
+        <v>1</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="55" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B30" s="55">
+        <v>1</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="55" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B31" s="55">
+        <v>1</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="55" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B32" s="55">
+        <v>1</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="55" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B33" s="55">
+        <v>3</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F684F7-3642-4B57-9890-F463FDFFAF38}">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
+    </row>
+    <row r="3" spans="1:3" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B3" s="53">
+        <v>1</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B4" s="55">
+        <v>2</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B5" s="55">
+        <v>1</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B6" s="55">
+        <v>3</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B7" s="55">
+        <v>1</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B8" s="55">
+        <v>3</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B10" s="55">
+        <v>1</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B11" s="55">
+        <v>1</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="55" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B12" s="55">
+        <v>3</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B13" s="55">
+        <v>3</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B14" s="55">
+        <v>3</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="55" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B15" s="55">
+        <v>1</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="55" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B16" s="55">
+        <v>1</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B17" s="55">
+        <v>1</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B18" s="55">
+        <v>1</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="55" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B19" s="55">
+        <v>1</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B20" s="55">
+        <v>1</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="55" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B21" s="55">
+        <v>1</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B22" s="55">
+        <v>1</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="55" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B23" s="55">
+        <v>1</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="55" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B24" s="55">
+        <v>1</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="55" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B25" s="55">
+        <v>1</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="55" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B26" s="55">
+        <v>1</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="55" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B27" s="55">
+        <v>1</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="55" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B28" s="55">
+        <v>1</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="55" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B29" s="55">
+        <v>1</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="55" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B30" s="55">
+        <v>1</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="55" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B31" s="55">
+        <v>1</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="55" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B32" s="55">
+        <v>1</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="55" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B33" s="55">
+        <v>1</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="55" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B34" s="55">
+        <v>1</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="55" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B35" s="55">
+        <v>1</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="55" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B36" s="55">
+        <v>2</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="55" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B37" s="55">
+        <v>1</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="55" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B38" s="55">
+        <v>1</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="55" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B39" s="55">
+        <v>1</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="55" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B40" s="55">
+        <v>1</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43494,20 +48763,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="64" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -45680,20 +50949,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="66" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -47375,20 +52644,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="66" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -49070,20 +54339,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="66" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -50861,20 +56130,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="66" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
